--- a/psychopy_expt/searchDiscPavlovia/Images_List_revisions.xlsx
+++ b/psychopy_expt/searchDiscPavlovia/Images_List_revisions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Documents\APP_VS_git\psychopy_expt\searchDiscPavlovia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11EA68E-70DE-401E-B47D-01D5D8A634A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A8FA6C-4CDC-4366-A6B5-EA409B7ACEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C7E81E1-CBE8-41B3-99A6-CDC33E582BA9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C7E81E1-CBE8-41B3-99A6-CDC33E582BA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3847" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3847" uniqueCount="976">
   <si>
     <t>ImageFile</t>
   </si>
@@ -2959,6 +2959,9 @@
   </si>
   <si>
     <t>images/exp2b_trial_191_colour0_distractors0_l.png</t>
+  </si>
+  <si>
+    <t>correctAnswer</t>
   </si>
 </sst>
 </file>
@@ -3313,7 +3316,7 @@
   <dimension ref="A1:G961"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3347,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>975</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
